--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vcam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H2">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I2">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J2">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N2">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O2">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P2">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q2">
-        <v>4.8098578469946</v>
+        <v>5.547459796992</v>
       </c>
       <c r="R2">
-        <v>4.8098578469946</v>
+        <v>22.189839187968</v>
       </c>
       <c r="S2">
-        <v>0.000168428089400219</v>
+        <v>0.0001693996323075228</v>
       </c>
       <c r="T2">
-        <v>0.000168428089400219</v>
+        <v>9.108494251548178E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H3">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I3">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J3">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N3">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P3">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q3">
-        <v>1783.974246430708</v>
+        <v>0.2031357586773334</v>
       </c>
       <c r="R3">
-        <v>1783.974246430708</v>
+        <v>1.218814552064</v>
       </c>
       <c r="S3">
-        <v>0.06246990730781504</v>
+        <v>6.203041407728399E-06</v>
       </c>
       <c r="T3">
-        <v>0.06246990730781504</v>
+        <v>5.002994950588833E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.7786393340571</v>
+        <v>14.972416</v>
       </c>
       <c r="H4">
-        <v>14.7786393340571</v>
+        <v>29.944832</v>
       </c>
       <c r="I4">
-        <v>0.1145876518263501</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J4">
-        <v>0.1145876518263501</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>100.383678438344</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N4">
-        <v>100.383678438344</v>
+        <v>373.961899</v>
       </c>
       <c r="O4">
-        <v>0.4533587659851912</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P4">
-        <v>0.4533587659851912</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q4">
-        <v>1483.53417866625</v>
+        <v>1866.371039992662</v>
       </c>
       <c r="R4">
-        <v>1483.53417866625</v>
+        <v>11198.22623995597</v>
       </c>
       <c r="S4">
-        <v>0.05194931642913482</v>
+        <v>0.05699231350817515</v>
       </c>
       <c r="T4">
-        <v>0.05194931642913482</v>
+        <v>0.04596652480000028</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.1949520906659</v>
+        <v>14.972416</v>
       </c>
       <c r="H5">
-        <v>38.1949520906659</v>
+        <v>29.944832</v>
       </c>
       <c r="I5">
-        <v>0.2961483647282326</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J5">
-        <v>0.2961483647282326</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.325460127842106</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N5">
-        <v>0.325460127842106</v>
+        <v>301.895584</v>
       </c>
       <c r="O5">
-        <v>0.001469862473972854</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P5">
-        <v>0.001469862473972854</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q5">
-        <v>12.43093399035124</v>
+        <v>1506.702090736982</v>
       </c>
       <c r="R5">
-        <v>12.43093399035124</v>
+        <v>9040.212544421887</v>
       </c>
       <c r="S5">
-        <v>0.000435297368042455</v>
+        <v>0.04600930687342997</v>
       </c>
       <c r="T5">
-        <v>0.000435297368042455</v>
+        <v>0.03710830136988519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.1949520906659</v>
+        <v>14.972416</v>
       </c>
       <c r="H6">
-        <v>38.1949520906659</v>
+        <v>29.944832</v>
       </c>
       <c r="I6">
-        <v>0.2961483647282326</v>
+        <v>0.1033656722518705</v>
       </c>
       <c r="J6">
-        <v>0.2961483647282326</v>
+        <v>0.08332290573803899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>120.713024122564</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N6">
-        <v>120.713024122564</v>
+        <v>1.236532</v>
       </c>
       <c r="O6">
-        <v>0.5451713715408358</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P6">
-        <v>0.5451713715408358</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q6">
-        <v>4610.628173080729</v>
+        <v>6.171290500437334</v>
       </c>
       <c r="R6">
-        <v>4610.628173080729</v>
+        <v>37.027743002624</v>
       </c>
       <c r="S6">
-        <v>0.1614516101784662</v>
+        <v>0.0001884491965500765</v>
       </c>
       <c r="T6">
-        <v>0.1614516101784662</v>
+        <v>0.0001519916306874726</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>38.1949520906659</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H7">
-        <v>38.1949520906659</v>
+        <v>121.239368</v>
       </c>
       <c r="I7">
-        <v>0.2961483647282326</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J7">
-        <v>0.2961483647282326</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>100.383678438344</v>
+        <v>0.370512</v>
       </c>
       <c r="N7">
-        <v>100.383678438344</v>
+        <v>0.741024</v>
       </c>
       <c r="O7">
-        <v>0.4533587659851912</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P7">
-        <v>0.4533587659851912</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q7">
-        <v>3834.149788637361</v>
+        <v>14.973546905472</v>
       </c>
       <c r="R7">
-        <v>3834.149788637361</v>
+        <v>89.84128143283199</v>
       </c>
       <c r="S7">
-        <v>0.1342614571817239</v>
+        <v>0.0004572387061735492</v>
       </c>
       <c r="T7">
-        <v>0.1342614571817239</v>
+        <v>0.0003687808589105906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.3754881881135</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H8">
-        <v>2.3754881881135</v>
+        <v>121.239368</v>
       </c>
       <c r="I8">
-        <v>0.01841858423257366</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J8">
-        <v>0.01841858423257366</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.325460127842106</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N8">
-        <v>0.325460127842106</v>
+        <v>0.040702</v>
       </c>
       <c r="O8">
-        <v>0.001469862473972854</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P8">
-        <v>0.001469862473972854</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q8">
-        <v>0.7731266893908325</v>
+        <v>0.5482983062595554</v>
       </c>
       <c r="R8">
-        <v>0.7731266893908325</v>
+        <v>4.934684756336</v>
       </c>
       <c r="S8">
-        <v>2.707278578716812E-05</v>
+        <v>1.674307428520156E-05</v>
       </c>
       <c r="T8">
-        <v>2.707278578716812E-05</v>
+        <v>2.025591413959448E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -971,57 +971,57 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.3754881881135</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H9">
-        <v>2.3754881881135</v>
+        <v>121.239368</v>
       </c>
       <c r="I9">
-        <v>0.01841858423257366</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J9">
-        <v>0.01841858423257366</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>120.713024122564</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N9">
-        <v>120.713024122564</v>
+        <v>373.961899</v>
       </c>
       <c r="O9">
-        <v>0.5451713715408358</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P9">
-        <v>0.5451713715408358</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q9">
-        <v>286.7523629546108</v>
+        <v>5037.656032315536</v>
       </c>
       <c r="R9">
-        <v>286.7523629546108</v>
+        <v>45338.90429083983</v>
       </c>
       <c r="S9">
-        <v>0.0100412848279126</v>
+        <v>0.1538320439976424</v>
       </c>
       <c r="T9">
-        <v>0.0100412848279126</v>
+        <v>0.1861073194836544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1033,57 +1033,57 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.3754881881135</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H10">
-        <v>2.3754881881135</v>
+        <v>121.239368</v>
       </c>
       <c r="I10">
-        <v>0.01841858423257366</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J10">
-        <v>0.01841858423257366</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>100.383678438344</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N10">
-        <v>100.383678438344</v>
+        <v>301.895584</v>
       </c>
       <c r="O10">
-        <v>0.4533587659851912</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P10">
-        <v>0.4533587659851912</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q10">
-        <v>238.46024240967</v>
+        <v>4066.847756238989</v>
       </c>
       <c r="R10">
-        <v>238.46024240967</v>
+        <v>36601.62980615091</v>
       </c>
       <c r="S10">
-        <v>0.008350226618873894</v>
+        <v>0.124187022487502</v>
       </c>
       <c r="T10">
-        <v>0.008350226618873894</v>
+        <v>0.1502425194984701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.1916422859751</v>
+        <v>40.41312266666666</v>
       </c>
       <c r="H11">
-        <v>12.1916422859751</v>
+        <v>121.239368</v>
       </c>
       <c r="I11">
-        <v>0.09452911258462977</v>
+        <v>0.2790017050179012</v>
       </c>
       <c r="J11">
-        <v>0.09452911258462977</v>
+        <v>0.3373542530344942</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.325460127842106</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N11">
-        <v>0.325460127842106</v>
+        <v>1.236532</v>
       </c>
       <c r="O11">
-        <v>0.001469862473972854</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P11">
-        <v>0.001469862473972854</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q11">
-        <v>3.967893456998681</v>
+        <v>16.65737313241955</v>
       </c>
       <c r="R11">
-        <v>3.967893456998681</v>
+        <v>149.916358191776</v>
       </c>
       <c r="S11">
-        <v>0.0001389447952861023</v>
+        <v>0.0005086567522978934</v>
       </c>
       <c r="T11">
-        <v>0.0001389447952861023</v>
+        <v>0.0006153772793194692</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.1916422859751</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H12">
-        <v>12.1916422859751</v>
+        <v>15.021127</v>
       </c>
       <c r="I12">
-        <v>0.09452911258462977</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J12">
-        <v>0.09452911258462977</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>120.713024122564</v>
+        <v>0.370512</v>
       </c>
       <c r="N12">
-        <v>120.713024122564</v>
+        <v>0.741024</v>
       </c>
       <c r="O12">
-        <v>0.5451713715408358</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P12">
-        <v>0.5451713715408358</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q12">
-        <v>1471.690009360583</v>
+        <v>1.855169269008</v>
       </c>
       <c r="R12">
-        <v>1471.690009360583</v>
+        <v>11.131015614048</v>
       </c>
       <c r="S12">
-        <v>0.0515345659583007</v>
+        <v>5.665025138326825E-05</v>
       </c>
       <c r="T12">
-        <v>0.0515345659583007</v>
+        <v>4.569063834830501E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,60 +1216,60 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.1916422859751</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H13">
-        <v>12.1916422859751</v>
+        <v>15.021127</v>
       </c>
       <c r="I13">
-        <v>0.09452911258462977</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J13">
-        <v>0.09452911258462977</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>100.383678438344</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N13">
-        <v>100.383678438344</v>
+        <v>0.040702</v>
       </c>
       <c r="O13">
-        <v>0.4533587659851912</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P13">
-        <v>0.4533587659851912</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q13">
-        <v>1223.841898870642</v>
+        <v>0.06793221235044446</v>
       </c>
       <c r="R13">
-        <v>1223.841898870642</v>
+        <v>0.611389911154</v>
       </c>
       <c r="S13">
-        <v>0.04285560183104296</v>
+        <v>2.074407425222201E-06</v>
       </c>
       <c r="T13">
-        <v>0.04285560183104296</v>
+        <v>2.509635804039695E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,60 +1278,60 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>9.84609739952954</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H14">
-        <v>9.84609739952954</v>
+        <v>15.021127</v>
       </c>
       <c r="I14">
-        <v>0.07634269672348057</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J14">
-        <v>0.07634269672348057</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.325460127842106</v>
+        <v>124.6539663333333</v>
       </c>
       <c r="N14">
-        <v>0.325460127842106</v>
+        <v>373.961899</v>
       </c>
       <c r="O14">
-        <v>0.001469862473972854</v>
+        <v>0.5513659638308388</v>
       </c>
       <c r="P14">
-        <v>0.001469862473972854</v>
+        <v>0.5516673283636507</v>
       </c>
       <c r="Q14">
-        <v>3.204512118396711</v>
+        <v>624.1476864489082</v>
       </c>
       <c r="R14">
-        <v>3.204512118396711</v>
+        <v>5617.329178040173</v>
       </c>
       <c r="S14">
-        <v>0.0001122132650757344</v>
+        <v>0.01905924377268426</v>
       </c>
       <c r="T14">
-        <v>0.0001122132650757344</v>
+        <v>0.02305803574952278</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,122 +1340,122 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>9.84609739952954</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H15">
-        <v>9.84609739952954</v>
+        <v>15.021127</v>
       </c>
       <c r="I15">
-        <v>0.07634269672348057</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J15">
-        <v>0.07634269672348057</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>120.713024122564</v>
+        <v>100.6318613333333</v>
       </c>
       <c r="N15">
-        <v>120.713024122564</v>
+        <v>301.895584</v>
       </c>
       <c r="O15">
-        <v>0.5451713715408358</v>
+        <v>0.4451120557830784</v>
       </c>
       <c r="P15">
-        <v>0.5451713715408358</v>
+        <v>0.4453553442621279</v>
       </c>
       <c r="Q15">
-        <v>1188.552192902524</v>
+        <v>503.8679897781298</v>
       </c>
       <c r="R15">
-        <v>1188.552192902524</v>
+        <v>4534.811908003167</v>
       </c>
       <c r="S15">
-        <v>0.04161985267986597</v>
+        <v>0.01538633091964505</v>
       </c>
       <c r="T15">
-        <v>0.04161985267986597</v>
+        <v>0.01861451443879596</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>9.84609739952954</v>
+        <v>5.007042333333334</v>
       </c>
       <c r="H16">
-        <v>9.84609739952954</v>
+        <v>15.021127</v>
       </c>
       <c r="I16">
-        <v>0.07634269672348057</v>
+        <v>0.03456732011577652</v>
       </c>
       <c r="J16">
-        <v>0.07634269672348057</v>
+        <v>0.04179699352128983</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>100.383678438344</v>
+        <v>0.4121773333333333</v>
       </c>
       <c r="N16">
-        <v>100.383678438344</v>
+        <v>1.236532</v>
       </c>
       <c r="O16">
-        <v>0.4533587659851912</v>
+        <v>0.001823131339879293</v>
       </c>
       <c r="P16">
-        <v>0.4533587659851912</v>
+        <v>0.001824127823450168</v>
       </c>
       <c r="Q16">
-        <v>988.3874752269885</v>
+        <v>2.063789356840445</v>
       </c>
       <c r="R16">
-        <v>988.3874752269885</v>
+        <v>18.574104211564</v>
       </c>
       <c r="S16">
-        <v>0.03461063077853885</v>
+        <v>6.302076463871208E-05</v>
       </c>
       <c r="T16">
-        <v>0.03461063077853885</v>
+        <v>7.62430588187512E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1467,57 +1467,57 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>51.5855359119143</v>
+        <v>12.521722</v>
       </c>
       <c r="H17">
-        <v>51.5855359119143</v>
+        <v>37.565166</v>
       </c>
       <c r="I17">
-        <v>0.3999735899047333</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J17">
-        <v>0.3999735899047333</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.325460127842106</v>
+        <v>0.370512</v>
       </c>
       <c r="N17">
-        <v>0.325460127842106</v>
+        <v>0.741024</v>
       </c>
       <c r="O17">
-        <v>0.001469862473972854</v>
+        <v>0.001638838393995521</v>
       </c>
       <c r="P17">
-        <v>0.001469862473972854</v>
+        <v>0.00109315609805839</v>
       </c>
       <c r="Q17">
-        <v>16.78903511269518</v>
+        <v>4.639448261664001</v>
       </c>
       <c r="R17">
-        <v>16.78903511269518</v>
+        <v>27.836689569984</v>
       </c>
       <c r="S17">
-        <v>0.0005879061703811749</v>
+        <v>0.0001416721992400571</v>
       </c>
       <c r="T17">
-        <v>0.0005879061703811749</v>
+        <v>0.0001142641570236404</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,861 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>51.5855359119143</v>
+        <v>12.521722</v>
       </c>
       <c r="H18">
-        <v>51.5855359119143</v>
+        <v>37.565166</v>
       </c>
       <c r="I18">
-        <v>0.3999735899047333</v>
+        <v>0.08644671723528362</v>
       </c>
       <c r="J18">
-        <v>0.3999735899047333</v>
+        <v>0.1045268440862112</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>120.713024122564</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N18">
-        <v>120.713024122564</v>
+        <v>0.040702</v>
       </c>
       <c r="O18">
-        <v>0.5451713715408358</v>
+        <v>6.001065220776088E-05</v>
       </c>
       <c r="P18">
-        <v>0.5451713715408358</v>
+        <v>6.004345271296559E-05</v>
       </c>
       <c r="Q18">
-        <v>6227.046040910302</v>
+        <v>0.1698863762813334</v>
       </c>
       <c r="R18">
-        <v>6227.046040910302</v>
+        <v>1.528977386532</v>
       </c>
       <c r="S18">
-        <v>0.2180541505884752</v>
+        <v>5.187723882509253E-06</v>
       </c>
       <c r="T18">
-        <v>0.2180541505884752</v>
+        <v>6.276152620125948E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>12.521722</v>
+      </c>
+      <c r="H19">
+        <v>37.565166</v>
+      </c>
+      <c r="I19">
+        <v>0.08644671723528362</v>
+      </c>
+      <c r="J19">
+        <v>0.1045268440862112</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N19">
+        <v>373.961899</v>
+      </c>
+      <c r="O19">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P19">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q19">
+        <v>1560.88231262336</v>
+      </c>
+      <c r="R19">
+        <v>14047.94081361024</v>
+      </c>
+      <c r="S19">
+        <v>0.04766377756844414</v>
+      </c>
+      <c r="T19">
+        <v>0.05766404481932399</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>12.521722</v>
+      </c>
+      <c r="H20">
+        <v>37.565166</v>
+      </c>
+      <c r="I20">
+        <v>0.08644671723528362</v>
+      </c>
+      <c r="J20">
+        <v>0.1045268440862112</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N20">
+        <v>301.895584</v>
+      </c>
+      <c r="O20">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P20">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q20">
+        <v>1260.08419195855</v>
+      </c>
+      <c r="R20">
+        <v>11340.75772762695</v>
+      </c>
+      <c r="S20">
+        <v>0.03847847602429557</v>
+      </c>
+      <c r="T20">
+        <v>0.04655158863264835</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>12.521722</v>
+      </c>
+      <c r="H21">
+        <v>37.565166</v>
+      </c>
+      <c r="I21">
+        <v>0.08644671723528362</v>
+      </c>
+      <c r="J21">
+        <v>0.1045268440862112</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N21">
+        <v>1.236532</v>
+      </c>
+      <c r="O21">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P21">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q21">
+        <v>5.161169982701335</v>
+      </c>
+      <c r="R21">
+        <v>46.45052984431201</v>
+      </c>
+      <c r="S21">
+        <v>0.000157603719421329</v>
+      </c>
+      <c r="T21">
+        <v>0.0001906703245950955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.74303333333333</v>
+      </c>
+      <c r="H22">
+        <v>35.2291</v>
+      </c>
+      <c r="I22">
+        <v>0.08107085287879548</v>
+      </c>
+      <c r="J22">
+        <v>0.09802663038937569</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.370512</v>
+      </c>
+      <c r="N22">
+        <v>0.741024</v>
+      </c>
+      <c r="O22">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P22">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q22">
+        <v>4.350934766400001</v>
+      </c>
+      <c r="R22">
+        <v>26.1056085984</v>
+      </c>
+      <c r="S22">
+        <v>0.0001328620263317323</v>
+      </c>
+      <c r="T22">
+        <v>0.000107158408782262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.74303333333333</v>
+      </c>
+      <c r="H23">
+        <v>35.2291</v>
+      </c>
+      <c r="I23">
+        <v>0.08107085287879548</v>
+      </c>
+      <c r="J23">
+        <v>0.09802663038937569</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.040702</v>
+      </c>
+      <c r="O23">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P23">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q23">
+        <v>0.1593216475777778</v>
+      </c>
+      <c r="R23">
+        <v>1.4338948282</v>
+      </c>
+      <c r="S23">
+        <v>4.865114756295946E-06</v>
+      </c>
+      <c r="T23">
+        <v>5.885857346395834E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.74303333333333</v>
+      </c>
+      <c r="H24">
+        <v>35.2291</v>
+      </c>
+      <c r="I24">
+        <v>0.08107085287879548</v>
+      </c>
+      <c r="J24">
+        <v>0.09802663038937569</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N24">
+        <v>373.961899</v>
+      </c>
+      <c r="O24">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P24">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q24">
+        <v>1463.815681784545</v>
+      </c>
+      <c r="R24">
+        <v>13174.3411360609</v>
+      </c>
+      <c r="S24">
+        <v>0.0446997089361052</v>
+      </c>
+      <c r="T24">
+        <v>0.05407808929539794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.74303333333333</v>
+      </c>
+      <c r="H25">
+        <v>35.2291</v>
+      </c>
+      <c r="I25">
+        <v>0.08107085287879548</v>
+      </c>
+      <c r="J25">
+        <v>0.09802663038937569</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N25">
+        <v>301.895584</v>
+      </c>
+      <c r="O25">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P25">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q25">
+        <v>1181.723302032711</v>
+      </c>
+      <c r="R25">
+        <v>10635.5097182944</v>
+      </c>
+      <c r="S25">
+        <v>0.03608561398896816</v>
+      </c>
+      <c r="T25">
+        <v>0.04365668372391678</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.74303333333333</v>
+      </c>
+      <c r="H26">
+        <v>35.2291</v>
+      </c>
+      <c r="I26">
+        <v>0.08107085287879548</v>
+      </c>
+      <c r="J26">
+        <v>0.09802663038937569</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N26">
+        <v>1.236532</v>
+      </c>
+      <c r="O26">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P26">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q26">
+        <v>4.840212164577778</v>
+      </c>
+      <c r="R26">
+        <v>43.5619094812</v>
+      </c>
+      <c r="S26">
+        <v>0.0001478028126340754</v>
+      </c>
+      <c r="T26">
+        <v>0.000178813103932326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>60.1916805</v>
+      </c>
+      <c r="H27">
+        <v>120.383361</v>
+      </c>
+      <c r="I27">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J27">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.370512</v>
+      </c>
+      <c r="N27">
+        <v>0.741024</v>
+      </c>
+      <c r="O27">
+        <v>0.001638838393995521</v>
+      </c>
+      <c r="P27">
+        <v>0.00109315609805839</v>
+      </c>
+      <c r="Q27">
+        <v>22.301739925416</v>
+      </c>
+      <c r="R27">
+        <v>89.20695970166399</v>
+      </c>
+      <c r="S27">
+        <v>0.0006810155785593915</v>
+      </c>
+      <c r="T27">
+        <v>0.0003661770924781107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>60.1916805</v>
+      </c>
+      <c r="H28">
+        <v>120.383361</v>
+      </c>
+      <c r="I28">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J28">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.040702</v>
+      </c>
+      <c r="O28">
+        <v>6.001065220776088E-05</v>
+      </c>
+      <c r="P28">
+        <v>6.004345271296559E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.816640593237</v>
+      </c>
+      <c r="R28">
+        <v>4.899843559422</v>
+      </c>
+      <c r="S28">
+        <v>2.493729045080353E-05</v>
+      </c>
+      <c r="T28">
+        <v>2.011289785222079E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>60.1916805</v>
+      </c>
+      <c r="H29">
+        <v>120.383361</v>
+      </c>
+      <c r="I29">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J29">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>124.6539663333333</v>
+      </c>
+      <c r="N29">
+        <v>373.961899</v>
+      </c>
+      <c r="O29">
+        <v>0.5513659638308388</v>
+      </c>
+      <c r="P29">
+        <v>0.5516673283636507</v>
+      </c>
+      <c r="Q29">
+        <v>7503.131714593756</v>
+      </c>
+      <c r="R29">
+        <v>45018.79028756254</v>
+      </c>
+      <c r="S29">
+        <v>0.2291188760477877</v>
+      </c>
+      <c r="T29">
+        <v>0.1847933142157513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>51.5855359119143</v>
-      </c>
-      <c r="H19">
-        <v>51.5855359119143</v>
-      </c>
-      <c r="I19">
-        <v>0.3999735899047333</v>
-      </c>
-      <c r="J19">
-        <v>0.3999735899047333</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>100.383678438344</v>
-      </c>
-      <c r="N19">
-        <v>100.383678438344</v>
-      </c>
-      <c r="O19">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="P19">
-        <v>0.4533587659851912</v>
-      </c>
-      <c r="Q19">
-        <v>5178.345849051252</v>
-      </c>
-      <c r="R19">
-        <v>5178.345849051252</v>
-      </c>
-      <c r="S19">
-        <v>0.1813315331458768</v>
-      </c>
-      <c r="T19">
-        <v>0.1813315331458768</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>60.1916805</v>
+      </c>
+      <c r="H30">
+        <v>120.383361</v>
+      </c>
+      <c r="I30">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J30">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>100.6318613333333</v>
+      </c>
+      <c r="N30">
+        <v>301.895584</v>
+      </c>
+      <c r="O30">
+        <v>0.4451120557830784</v>
+      </c>
+      <c r="P30">
+        <v>0.4453553442621279</v>
+      </c>
+      <c r="Q30">
+        <v>6057.200845496303</v>
+      </c>
+      <c r="R30">
+        <v>36343.20507297782</v>
+      </c>
+      <c r="S30">
+        <v>0.1849653054892377</v>
+      </c>
+      <c r="T30">
+        <v>0.1491817365984114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>60.1916805</v>
+      </c>
+      <c r="H31">
+        <v>120.383361</v>
+      </c>
+      <c r="I31">
+        <v>0.4155477325003729</v>
+      </c>
+      <c r="J31">
+        <v>0.3349723732305901</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.4121773333333333</v>
+      </c>
+      <c r="N31">
+        <v>1.236532</v>
+      </c>
+      <c r="O31">
+        <v>0.001823131339879293</v>
+      </c>
+      <c r="P31">
+        <v>0.001824127823450168</v>
+      </c>
+      <c r="Q31">
+        <v>24.809646357342</v>
+      </c>
+      <c r="R31">
+        <v>148.857878144052</v>
+      </c>
+      <c r="S31">
+        <v>0.0007575980943372067</v>
+      </c>
+      <c r="T31">
+        <v>0.0006110324260970538</v>
       </c>
     </row>
   </sheetData>
